--- a/biology/Microbiologie/Methanopyrus_kandleri/Methanopyrus_kandleri.xlsx
+++ b/biology/Microbiologie/Methanopyrus_kandleri/Methanopyrus_kandleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Methanopyrus kandleri est l'unique espèce connue du genre Methanopyrus. Il s'agit d'une archée méthanogène hyperthermophile découverte à 2 000 m de profondeur sur les parois d'une cheminée hydrothermale dans le golfe de Californie, où elle se développe à une température de 84 à 110 °C. Sa multiplication a par ailleurs été observée in vitro à une température de 122 °C et une pression de 40 MPa (près de 395 atm)[2]. Elle croît dans un environnement riche en hydrogène H2 et en dioxyde de carbone CO2, utilisant le premier pour réduire le second en méthane CH4.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Methanopyrus kandleri est l'unique espèce connue du genre Methanopyrus. Il s'agit d'une archée méthanogène hyperthermophile découverte à 2 000 m de profondeur sur les parois d'une cheminée hydrothermale dans le golfe de Californie, où elle se développe à une température de 84 à 110 °C. Sa multiplication a par ailleurs été observée in vitro à une température de 122 °C et une pression de 40 MPa (près de 395 atm). Elle croît dans un environnement riche en hydrogène H2 et en dioxyde de carbone CO2, utilisant le premier pour réduire le second en méthane CH4.
 </t>
         </is>
       </c>
